--- a/hhh/毕设脚本1.0.xlsx
+++ b/hhh/毕设脚本1.0.xlsx
@@ -1,211 +1,218 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="初步效果预估" sheetId="1" r:id="rId1"/>
     <sheet name="脚本" sheetId="2" r:id="rId2"/>
     <sheet name="几个需要注意的点" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制角色</t>
   </si>
   <si>
     <t>剧情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>分镜头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗边的风铃（或者其他东西）摇曳，意味着时间到了早晨</t>
+  </si>
+  <si>
+    <t>暂无风铃模拟</t>
   </si>
   <si>
     <t>镜头从一些场景中扫过（为了展示环境）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.bilibili.com/video/av26781362?from=search&amp;seid=12996512161924336624</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗边的风铃（或者其他东西）摇曳，意味着时间到了早晨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景摄像机动画</t>
   </si>
   <si>
     <t>镜头转向卧室，女孩和一只猫躺着，随后响起闹钟铃声</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女孩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>床头的闹钟上泛起光圈，点击后铃声停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导，闹钟，铃声，床，人物躺着</t>
   </si>
   <si>
     <t>床边的地毯微微发光，点击后人物起床并保持站立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导，人物站立</t>
   </si>
   <si>
     <t>根据地面的光圈提示，来到厕所门口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光圈引导，第三人称行走</t>
   </si>
   <si>
     <t>点击发光的厕所门把手，人物走进厕所，门关上，传来水的声音。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>点击门把手之后的行为直接做成视频。视频结束后人物又回到一开始站在厕所门前的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开门，进入，固定脚本动作</t>
   </si>
   <si>
     <t>根据提示来到厨房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出门进入厨房</t>
   </si>
   <si>
     <t>点击柜子（或者冰箱），拿出食物【视角为背部】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击交互，拿出食物，动画</t>
   </si>
   <si>
     <t>根据提示来到房门口，点击发光的门把手，门打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步行，开门</t>
   </si>
   <si>
     <t>房门外的环境为白色，白色逐渐扩散到整个画面，最终画面变白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照timeline，全屏特效，bloom</t>
   </si>
   <si>
     <t>猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模拟眨眼的画面，暗示变成了第一人称视角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏clip</t>
+  </si>
+  <si>
+    <t>面向房间镜头摇晃，配合猫咪的叫声（1.模拟猫的行为 2.模拟猫查看主人在不在）</t>
+  </si>
+  <si>
+    <t>镜头动画</t>
   </si>
   <si>
     <t>床边的地毯微微发光，点击后镜头从跳跃到地面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面向房间镜头摇晃，配合猫咪的叫声（1.模拟猫的行为 2.模拟猫查看主人在不在）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认主人不在后，画面逐渐变成黑白，前面变化速度比较慢，最后在第17节快结束的时候彻底变成黑白</t>
   </si>
   <si>
     <t>跟随提示来到食物面前，点击后进食，食盆里的食物逐渐变少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跟随提示来到客厅（要通过床底下）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跟随提示跳上柜子，然后在猫爬架上跳跃玩耍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认主人不在后，画面逐渐变成黑白，前面变化速度比较慢，最后在第17节快结束的时候彻底变成黑白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从架子上下来，来到椅子上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个角色的互换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头慢慢降低（模拟猫低头）,模拟眨眼的画面(猫入睡)，画面变黑</t>
+  </si>
+  <si>
+    <t>全屏裁切特效</t>
   </si>
   <si>
     <t>响起脚步，画面逐渐出现（主人回来）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放脚步声，bloom</t>
   </si>
   <si>
     <t>来到门口，门打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面立即恢复色彩</t>
   </si>
   <si>
     <t>跟随主人行动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随行动AI</t>
   </si>
   <si>
     <t>来到客厅的地毯，主人坐下，猫来到地毯边的猫窝（或者其他猫玩具）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐下动作，猫动作</t>
   </si>
   <si>
     <t>镜头转到窗边的风铃，这时天已经黑了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光照timeline</t>
   </si>
   <si>
     <t>体验结束，出现按钮（重新开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束游戏</t>
   </si>
   <si>
     <t>为了整体效果的活泼性，需要一些物体有简单动画，比如窗帘轻轻摆动。https://sketchfab.com/3d-models/kitchen-scene-diorama-hand-painted-5a650ca873b543f88d564917918d9ed0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>镜头切换和运动较多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>有一部分需要直接切换到视频</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镜头慢慢降低（模拟猫低头）,模拟眨眼的画面(猫入睡)，画面变黑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画面立即恢复色彩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人一共有三种姿态：躺、走、坐。需要完成躺-走-坐的切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -214,14 +221,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,14 +246,19 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.399975585192419"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -244,39 +266,160 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3" tint="-0.249977111117893"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9" tint="-0.499984740745262"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,18 +428,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -304,76 +633,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,7 +989,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -398,15 +1003,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1815873" y="406854"/>
-          <a:ext cx="11246984" cy="2230210"/>
+          <a:off x="1809750" y="409575"/>
+          <a:ext cx="11197590" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,7 +1073,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -481,8 +1086,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2537114" y="576695"/>
-          <a:ext cx="3372716" cy="1929449"/>
+          <a:off x="2541905" y="571500"/>
+          <a:ext cx="3381375" cy="1910080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,15 +1109,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>15579</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1830516" y="601799"/>
-          <a:ext cx="455469" cy="1665144"/>
+          <a:off x="1833880" y="596265"/>
+          <a:ext cx="457200" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,11 +1154,21 @@
                   <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>最终效果</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -572,15 +1187,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>108239</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="矩形 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1951745" y="582065"/>
-          <a:ext cx="364548" cy="45719"/>
+          <a:off x="1955165" y="576580"/>
+          <a:ext cx="365760" cy="45720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,15 +1250,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>85045</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="TextBox 6"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="671852"/>
-          <a:ext cx="6624978" cy="1794443"/>
+          <a:off x="6166485" y="675640"/>
+          <a:ext cx="6594475" cy="1809115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -673,134 +1288,134 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>网上找到一个比较简陋的游戏</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>demo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>，最终效果预计和这个差不多，下面是几个关键点：</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>A.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>模型比较基础但也完整，材质不复杂（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>demo</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>中所展示的为作者网上找的，最终环境肯定没这个复杂，毕竟室内）</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>B.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>有一些比较简单的动画，比如人物的行走，花瓣的飘落</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>C.</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>能完成简单的交互行为，</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>网址：</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>https://www.bilibili.com/video/av37462665/?spm_id_from=333.788.videocard.19</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -820,15 +1435,15 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>68023</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="矩形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823696" y="2770402"/>
-          <a:ext cx="11246984" cy="2230210"/>
+          <a:off x="1817370" y="2792095"/>
+          <a:ext cx="11197590" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -882,15 +1497,15 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>167967</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 8"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847926" y="2956070"/>
-          <a:ext cx="460262" cy="1634218"/>
+          <a:off x="1841500" y="2978785"/>
+          <a:ext cx="457200" cy="1646555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -927,11 +1542,21 @@
                   <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>渲染参考</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -950,15 +1575,15 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>90537</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="矩形 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1969155" y="2936336"/>
-          <a:ext cx="369341" cy="45719"/>
+          <a:off x="1962785" y="2959100"/>
+          <a:ext cx="366395" cy="45720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,7 +1646,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1034,8 +1659,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2551339" y="2925535"/>
-          <a:ext cx="3462208" cy="1896496"/>
+          <a:off x="2541905" y="2948305"/>
+          <a:ext cx="3446780" cy="1911350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1057,15 +1682,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>119064</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="TextBox 10"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038939" y="4515178"/>
-          <a:ext cx="1965213" cy="366386"/>
+          <a:off x="4023360" y="4550410"/>
+          <a:ext cx="1955800" cy="368935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1099,8 +1724,8 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>unity</a:t>
           </a:r>
@@ -1109,11 +1734,18 @@
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>资源库中的一个房间模型</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1132,15 +1764,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>34018</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="TextBox 12"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6191250" y="3002075"/>
-          <a:ext cx="6624978" cy="1794443"/>
+          <a:off x="6166485" y="3025140"/>
+          <a:ext cx="6594475" cy="1809115"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,42 +1802,46 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>两个独立游戏的视频，渲染效果比较复杂，效果还是以左边的图片为主</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>https://fx.weico.net/share/64875574.html?weibo_id=4313112482034111</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>https://m.weibo.cn/status/4354062600135346?#&amp;video</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1225,15 +1861,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>84340</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1823015" y="5167969"/>
-          <a:ext cx="11246984" cy="2230210"/>
+          <a:off x="1816735" y="5208270"/>
+          <a:ext cx="11197590" cy="2247900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1287,15 +1923,15 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>14194</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="TextBox 14"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1847245" y="5353637"/>
-          <a:ext cx="460262" cy="1634218"/>
+          <a:off x="1840865" y="5395595"/>
+          <a:ext cx="457200" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1332,11 +1968,21 @@
                   <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>交互方式</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1355,15 +2001,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>106854</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1968474" y="5333903"/>
-          <a:ext cx="369341" cy="45719"/>
+          <a:off x="1962150" y="5375910"/>
+          <a:ext cx="366395" cy="45720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,15 +2064,15 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>50335</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="TextBox 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8325190" y="5399642"/>
-          <a:ext cx="4405993" cy="1794443"/>
+          <a:off x="8288020" y="5441315"/>
+          <a:ext cx="4387850" cy="1809750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1456,61 +2102,65 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>通过发光的物体和光圈来提示使用者点击</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>人物行进的方式和纪念碑谷风之旅人差不多，点击目标方向之后前进</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>https://www.bilibili.com/video/av25085431/?spm_id_from=333.788.videocard.4</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>这是一个类似风之旅人的作品</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -1538,7 +2188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1551,8 +2201,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2551340" y="5323794"/>
-          <a:ext cx="2751131" cy="1905001"/>
+          <a:off x="2541905" y="5365750"/>
+          <a:ext cx="2738755" cy="1919605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,15 +2224,15 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="矩形 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3308237" y="6590959"/>
-          <a:ext cx="306161" cy="272143"/>
+          <a:off x="3295650" y="6642100"/>
+          <a:ext cx="302895" cy="274955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1642,7 +2292,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1655,8 +2305,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5383326" y="5323795"/>
-          <a:ext cx="2602365" cy="1904319"/>
+          <a:off x="5361305" y="5365750"/>
+          <a:ext cx="2590165" cy="1918970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1678,15 +2328,15 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>17009</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5987143" y="5894538"/>
-          <a:ext cx="850448" cy="755953"/>
+          <a:off x="5962650" y="5940425"/>
+          <a:ext cx="847090" cy="762635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,7 +2379,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1743,7 +2393,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1751,7 +2401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="714375" y="457200"/>
-          <a:ext cx="11246984" cy="2009775"/>
+          <a:ext cx="12351385" cy="2009775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,15 +2455,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>48236</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="738605" y="642868"/>
-          <a:ext cx="460262" cy="1634218"/>
+          <a:off x="738505" y="642620"/>
+          <a:ext cx="459740" cy="1633855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1850,11 +2500,21 @@
                   <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>故事梗概</a:t>
           </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1873,15 +2533,15 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>154503</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="859834" y="623134"/>
-          <a:ext cx="369341" cy="45719"/>
+          <a:off x="859790" y="622935"/>
+          <a:ext cx="368935" cy="45720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1936,15 +2596,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2041</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="TextBox 4"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571624" y="607898"/>
-          <a:ext cx="10048875" cy="1794443"/>
+          <a:off x="1570990" y="607695"/>
+          <a:ext cx="10048875" cy="1794510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,22 +2634,22 @@
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>目的：使用者可以在</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>pc</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>端实时体验空间                   </a:t>
           </a:r>
@@ -2007,8 +2667,8 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>途径：跟随故事剧情</a:t>
           </a:r>
@@ -2026,77 +2686,81 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="1" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>角色：女孩、猫</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" b="1" baseline="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>因为可以体验的剧情为一天，空间尺度小，为了增强体验性，所以需要分别从两个角色来体验空间。</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>【</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>人（正常视角）</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>】【</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>猫（活动的高度差大，比如可以攀爬架子）</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>】</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1000" baseline="0">
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>大概剧情：</a:t>
           </a:r>
@@ -2107,8 +2771,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>早上人醒来，洗漱（厕所），准备早餐（厨房），出门。</a:t>
           </a:r>
@@ -2119,8 +2783,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>【</a:t>
           </a:r>
@@ -2131,8 +2795,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>这部分为第三人称视角，这样人物进行动作的时候可以从背部看，避开人物动画上的某些问题</a:t>
           </a:r>
@@ -2143,11 +2807,20 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>】</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2157,8 +2830,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>猫从睁开双眼，进行一系列活动（柜子）后睡了。门铃响了，主人回来，猫和人进行一些互动之后，入睡，画面变黑</a:t>
           </a:r>
@@ -2169,8 +2842,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>【</a:t>
           </a:r>
@@ -2181,8 +2854,8 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>这部分为第一人称视角，这样可以避免猫动作的复杂性，在架子上的活动，可以看做比较简单的跳跃行为</a:t>
           </a:r>
@@ -2193,11 +2866,20 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>】</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -2205,8 +2887,8 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
             <a:t>这样刚好是一天的循环</a:t>
           </a:r>
@@ -2214,8 +2896,8 @@
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -2225,14 +2907,14 @@
                 <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1000" baseline="0">
-            <a:latin typeface="微软雅黑" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" pitchFamily="34" charset="-122"/>
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -2260,7 +2942,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2274,7 +2956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4981575" y="4162425"/>
-          <a:ext cx="1159057" cy="656835"/>
+          <a:ext cx="1158875" cy="656590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2304,7 +2986,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2317,8 +2999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6207901" y="4169551"/>
-          <a:ext cx="1159058" cy="650099"/>
+          <a:off x="6207760" y="4169410"/>
+          <a:ext cx="1158875" cy="650240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2347,8 +3029,8 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2356,12 +3038,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect b="47083"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4848225" y="5934075"/>
-          <a:ext cx="2648567" cy="792000"/>
+          <a:ext cx="2647950" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2391,7 +3075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2404,8 +3088,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5457825" y="6838951"/>
-          <a:ext cx="1401530" cy="792000"/>
+          <a:off x="5457825" y="6838950"/>
+          <a:ext cx="1401445" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2427,15 +3111,15 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>684107</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="矩形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="20573369">
-          <a:off x="5805262" y="7212620"/>
-          <a:ext cx="129228" cy="253287"/>
+          <a:off x="5805170" y="7212330"/>
+          <a:ext cx="128905" cy="253365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2487,7 +3171,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="椭圆 14"/>
         <xdr:cNvSpPr/>
@@ -2554,8 +3238,8 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2563,12 +3247,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect b="47083"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4848225" y="5019675"/>
-          <a:ext cx="2648567" cy="792000"/>
+          <a:ext cx="2647950" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,7 +3284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2611,8 +3297,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5476876" y="10496550"/>
-          <a:ext cx="1418233" cy="792000"/>
+          <a:off x="5476875" y="10496550"/>
+          <a:ext cx="1417955" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2642,7 +3328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2655,8 +3341,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5419726" y="3181350"/>
-          <a:ext cx="1422179" cy="792000"/>
+          <a:off x="5419725" y="3181350"/>
+          <a:ext cx="1421765" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2686,7 +3372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2700,7 +3386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5486400" y="12334875"/>
-          <a:ext cx="1413636" cy="792000"/>
+          <a:ext cx="1413510" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,7 +3408,7 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>752475</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="矩形 20"/>
         <xdr:cNvSpPr/>
@@ -2782,15 +3468,15 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>849150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="矩形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5362574" y="13239750"/>
-          <a:ext cx="1552575" cy="792000"/>
+          <a:off x="5361940" y="13239750"/>
+          <a:ext cx="1552575" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2839,14 +3525,14 @@
       <xdr:row>28</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="椭圆 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5076826" y="13335000"/>
+          <a:off x="5076825" y="13335000"/>
           <a:ext cx="2114550" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2906,8 +3592,8 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+      <xdr:blipFill>
+        <a:blip r:embed="rId8">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2915,12 +3601,14 @@
           </a:extLst>
         </a:blip>
         <a:srcRect r="14249"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4895850" y="17830800"/>
-          <a:ext cx="5467350" cy="792000"/>
+          <a:ext cx="5467350" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2942,15 +3630,15 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>849150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410199" y="19640550"/>
-          <a:ext cx="1552575" cy="792000"/>
+          <a:off x="5409565" y="19640550"/>
+          <a:ext cx="1552575" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2999,14 +3687,14 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="椭圆 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5124451" y="19735800"/>
+          <a:off x="5124450" y="19735800"/>
           <a:ext cx="2114550" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -3067,7 +3755,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3081,7 +3769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5476875" y="21459825"/>
-          <a:ext cx="1399544" cy="792000"/>
+          <a:ext cx="1399540" cy="791845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3374,1173 +4062,1228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+    <sheetView zoomScale="112" zoomScaleNormal="112" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B17:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21:P21"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="2" t="s">
+    <row r="17" ht="30" customHeight="1" spans="2:17">
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" ht="72" customHeight="1" spans="2:17">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="2:17">
+      <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="7" t="s">
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="72" customHeight="1" spans="2:17">
+      <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="C20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="72" customHeight="1" spans="2:17">
+      <c r="B21" s="2">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="72" customHeight="1" spans="2:17">
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-    </row>
-    <row r="21" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <v>4</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-    </row>
-    <row r="22" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-    </row>
-    <row r="23" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" ht="72" customHeight="1" spans="2:17">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-    </row>
-    <row r="24" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="72" customHeight="1" spans="2:17">
+      <c r="B24" s="2">
         <v>7</v>
       </c>
-      <c r="C24" s="16"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="72" customHeight="1" spans="2:17">
+      <c r="B25" s="2">
         <v>8</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
+      <c r="C25" s="4"/>
+      <c r="D25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" ht="72" customHeight="1" spans="2:17">
+      <c r="B26" s="2">
         <v>9</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" ht="72" customHeight="1" spans="2:17">
+      <c r="B27" s="2">
         <v>10</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-    </row>
-    <row r="28" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="72" customHeight="1" spans="2:17">
+      <c r="B28" s="2">
         <v>11</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" ht="72" customHeight="1" spans="2:17">
+      <c r="B29" s="2">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" ht="72" customHeight="1" spans="2:17">
+      <c r="B30" s="2">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" ht="72" customHeight="1" spans="2:17">
+      <c r="B31" s="2">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" ht="72" customHeight="1" spans="2:17">
+      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="15"/>
+    </row>
+    <row r="33" ht="72" customHeight="1" spans="2:17">
+      <c r="B33" s="2">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="15"/>
+    </row>
+    <row r="34" ht="72" customHeight="1" spans="2:17">
+      <c r="B34" s="2">
+        <v>17</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="15"/>
+    </row>
+    <row r="35" ht="72" customHeight="1" spans="2:16">
+      <c r="B35" s="2">
+        <v>18</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" ht="72" customHeight="1" spans="2:17">
+      <c r="B36" s="2">
         <v>19</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
-        <v>12</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" ht="72" customHeight="1" spans="2:17">
+      <c r="B37" s="2">
         <v>20</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" ht="72" customHeight="1" spans="2:17">
+      <c r="B38" s="2">
         <v>21</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-    </row>
-    <row r="30" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3">
-        <v>13</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="11" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" ht="72" customHeight="1" spans="2:17">
+      <c r="B39" s="2">
+        <v>22</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="72" customHeight="1" spans="2:17">
+      <c r="B40" s="2">
         <v>23</v>
       </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-    </row>
-    <row r="31" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="3">
-        <v>14</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="3">
-        <v>15</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="11" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" ht="72" customHeight="1" spans="2:17">
+      <c r="B41" s="2">
         <v>24</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="17"/>
-    </row>
-    <row r="33" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="3">
-        <v>16</v>
-      </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="12" t="s">
+      <c r="C41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" ht="72" customHeight="1" spans="2:17">
+      <c r="B42" s="2">
         <v>25</v>
       </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="17"/>
-    </row>
-    <row r="34" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="3">
-        <v>17</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="17"/>
-    </row>
-    <row r="35" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="3">
-        <v>18</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-    </row>
-    <row r="36" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="3">
-        <v>19</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-    </row>
-    <row r="37" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="3">
-        <v>20</v>
-      </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-    </row>
-    <row r="38" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="3">
-        <v>21</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="3">
-        <v>22</v>
-      </c>
-      <c r="C39" s="18"/>
-      <c r="D39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-    </row>
-    <row r="40" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="3">
-        <v>23</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-    </row>
-    <row r="41" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="3">
-        <v>24</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-    </row>
-    <row r="42" spans="2:17" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="3">
-        <v>25</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="C42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="Q31:Q34"/>
-    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:P35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:P36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:P37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:P38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:P39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:P40"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:P41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:P42"/>
     <mergeCell ref="C21:C27"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="H27:K27"/>
-    <mergeCell ref="H28:K28"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="C29:C40"/>
+    <mergeCell ref="Q31:Q34"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L19" r:id="rId1"/>
+    <hyperlink ref="L19" r:id="rId2" display="https://www.bilibili.com/video/av26781362?from=search&amp;seid=12996512161924336624"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B4:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="4" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="4" ht="22.5" customHeight="1" spans="2:14">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-    </row>
-    <row r="5" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="3">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" ht="48" customHeight="1" spans="2:14">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-    </row>
-    <row r="6" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3">
+      <c r="C5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" ht="48" customHeight="1" spans="2:14">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="3">
+      <c r="C6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" ht="48" customHeight="1" spans="2:14">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="3">
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="2:14">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-    </row>
-    <row r="23" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-    </row>
-    <row r="25" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-    </row>
-    <row r="28" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-    </row>
-    <row r="29" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" ht="48" customHeight="1" spans="2:14">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" ht="48" customHeight="1" spans="2:14">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" ht="48" customHeight="1" spans="2:14">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" ht="48" customHeight="1" spans="2:14">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" ht="48" customHeight="1" spans="2:14">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" ht="48" customHeight="1" spans="2:14">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" ht="48" customHeight="1" spans="2:14">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" ht="48" customHeight="1" spans="2:14">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" ht="48" customHeight="1" spans="2:14">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" ht="48" customHeight="1" spans="2:14">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" ht="48" customHeight="1" spans="2:14">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" ht="48" customHeight="1" spans="2:14">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" ht="48" customHeight="1" spans="2:14">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" ht="48" customHeight="1" spans="2:14">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" ht="48" customHeight="1" spans="2:14">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" ht="48" customHeight="1" spans="2:14">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" ht="48" customHeight="1" spans="2:14">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" ht="48" customHeight="1" spans="2:14">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" ht="48" customHeight="1" spans="2:14">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" ht="48" customHeight="1" spans="2:14">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" ht="48" customHeight="1" spans="2:14">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" ht="48" customHeight="1" spans="2:14">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C28:N28"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="C30:N30"/>
-    <mergeCell ref="C22:N22"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:N24"/>
-    <mergeCell ref="C25:N25"/>
-    <mergeCell ref="C26:N26"/>
-    <mergeCell ref="C27:N27"/>
-    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C4:N4"/>
+    <mergeCell ref="C5:N5"/>
+    <mergeCell ref="C6:N6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C9:N9"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="C11:N11"/>
     <mergeCell ref="C12:N12"/>
@@ -4552,14 +5295,18 @@
     <mergeCell ref="C18:N18"/>
     <mergeCell ref="C19:N19"/>
     <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="C4:N4"/>
-    <mergeCell ref="C5:N5"/>
-    <mergeCell ref="C6:N6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="C8:N8"/>
+    <mergeCell ref="C21:N21"/>
+    <mergeCell ref="C22:N22"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C24:N24"/>
+    <mergeCell ref="C25:N25"/>
+    <mergeCell ref="C26:N26"/>
+    <mergeCell ref="C27:N27"/>
+    <mergeCell ref="C28:N28"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="C30:N30"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/hhh/毕设脚本1.0.xlsx
+++ b/hhh/毕设脚本1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="初步效果预估" sheetId="1" r:id="rId1"/>
@@ -203,12 +203,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +283,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -297,46 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,6 +337,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -375,7 +361,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,7 +392,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,23 +405,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,13 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,13 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,55 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,31 +511,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,37 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,17 +617,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -654,11 +624,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,26 +669,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,163 +695,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4088,8 +4069,8 @@
   <sheetPr/>
   <dimension ref="B17:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
